--- a/data/trans_dic/IP2906_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2906_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>49,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>46,94%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,62; 46,08</t>
+          <t>43,06; 55,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,23; 48,77</t>
+          <t>37,95; 50,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,88; 45,63</t>
+          <t>42,58; 51,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>44,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>42,26%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,06; 55,52</t>
+          <t>35,62; 46,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,95; 50,67</t>
+          <t>39,23; 48,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,58; 51,46</t>
+          <t>38,88; 45,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2906_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2906_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>44,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,61%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,27%</t>
+          <t>41,84%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,44; 52,15</t>
+          <t>32,95; 55,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,19; 51,41</t>
+          <t>29,97; 50,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,97; 49,62</t>
+          <t>34,6; 49,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>47,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>48,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>48,06%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,06; 55,52</t>
+          <t>41,42; 54,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,95; 50,67</t>
+          <t>41,82; 54,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,58; 51,46</t>
+          <t>43,99; 52,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>41,72%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,62; 46,08</t>
+          <t>36,89; 49,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,23; 48,77</t>
+          <t>34,15; 47,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,88; 45,63</t>
+          <t>36,92; 46,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>44,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>43,37%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,03; 47,53</t>
+          <t>35,97; 48,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,78; 47,32</t>
+          <t>38,88; 50,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,55; 46,3</t>
+          <t>39,26; 47,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>43,92%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>44,02%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>43,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40,22; 47,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>40,6; 47,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41,53; 46,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP2906_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2906_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,95; 55,76</t>
+          <t>33,59; 55,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,97; 50,56</t>
+          <t>29,44; 50,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,6; 49,81</t>
+          <t>34,41; 49,92</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,42; 54,13</t>
+          <t>41,94; 54,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,82; 54,5</t>
+          <t>41,82; 54,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,99; 52,99</t>
+          <t>43,77; 52,29</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,89; 49,32</t>
+          <t>36,43; 49,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,15; 47,41</t>
+          <t>33,8; 47,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,92; 46,51</t>
+          <t>37,24; 46,13</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,97; 48,18</t>
+          <t>36,56; 49,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,88; 50,35</t>
+          <t>38,96; 50,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,26; 47,59</t>
+          <t>39,04; 47,51</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,22; 47,64</t>
+          <t>39,99; 47,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,6; 47,4</t>
+          <t>40,65; 47,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,53; 46,45</t>
+          <t>41,2; 46,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2906_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2906_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,35%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>41,63%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,59; 55,61</t>
+          <t>29,04; 49,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,44; 50,08</t>
+          <t>33,65; 55,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,41; 49,92</t>
+          <t>33,95; 50,12</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>48,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>46,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>47,3%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,94; 54,12</t>
+          <t>41,52; 54,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,82; 54,71</t>
+          <t>40,53; 52,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,77; 52,29</t>
+          <t>42,65; 51,97</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>41,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>40,87%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,43; 49,57</t>
+          <t>33,82; 46,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,8; 47,02</t>
+          <t>35,06; 48,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,24; 46,13</t>
+          <t>35,96; 45,19</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>43,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>42,13%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,56; 49,11</t>
+          <t>38,12; 49,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,96; 50,59</t>
+          <t>33,94; 47,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,04; 47,51</t>
+          <t>37,24; 46,63</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>42,7%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>43,03%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,99; 47,08</t>
+          <t>40,09; 46,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,65; 47,52</t>
+          <t>38,55; 46,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,2; 46,59</t>
+          <t>40,47; 45,43</t>
         </is>
       </c>
     </row>
